--- a/Excel-XLSX/UN-ICE.xlsx
+++ b/Excel-XLSX/UN-ICE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="908">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>qhoMq4</t>
+    <t>UC3NOt</t>
   </si>
   <si>
     <t>1990</t>
@@ -2580,6 +2580,15 @@
     <t>608</t>
   </si>
   <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>COB</t>
+  </si>
+  <si>
+    <t>COG</t>
+  </si>
+  <si>
     <t>609</t>
   </si>
   <si>
@@ -2589,9 +2598,21 @@
     <t>611</t>
   </si>
   <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>GAM</t>
+  </si>
+  <si>
+    <t>GMB</t>
+  </si>
+  <si>
     <t>613</t>
   </si>
   <si>
+    <t>737</t>
+  </si>
+  <si>
     <t>614</t>
   </si>
   <si>
@@ -2652,6 +2673,15 @@
     <t>633</t>
   </si>
   <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
+    <t>PHL</t>
+  </si>
+  <si>
     <t>634</t>
   </si>
   <si>
@@ -2685,37 +2715,31 @@
     <t>644</t>
   </si>
   <si>
+    <t>4029</t>
+  </si>
+  <si>
     <t>645</t>
   </si>
   <si>
+    <t>1340</t>
+  </si>
+  <si>
+    <t>655</t>
+  </si>
+  <si>
     <t>646</t>
   </si>
   <si>
     <t>647</t>
   </si>
   <si>
-    <t>648</t>
-  </si>
-  <si>
-    <t>649</t>
-  </si>
-  <si>
-    <t>650</t>
-  </si>
-  <si>
-    <t>5403</t>
-  </si>
-  <si>
-    <t>651</t>
-  </si>
-  <si>
-    <t>1270</t>
-  </si>
-  <si>
-    <t>1453</t>
-  </si>
-  <si>
-    <t>652</t>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>ZIM</t>
+  </si>
+  <si>
+    <t>ZWE</t>
   </si>
 </sst>
 </file>
@@ -3100,7 +3124,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V653"/>
+  <dimension ref="A1:V648"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -43949,10 +43973,10 @@
         <v>32</v>
       </c>
       <c r="N601" s="2" t="s">
-        <v>415</v>
+        <v>541</v>
       </c>
       <c r="O601" s="2" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="P601" s="2" t="s">
         <v>34</v>
@@ -43993,16 +44017,16 @@
         <v>845</v>
       </c>
       <c r="F602" s="2" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="G602" s="1" t="s">
-        <v>126</v>
+        <v>354</v>
       </c>
       <c r="H602" s="1" t="s">
-        <v>127</v>
+        <v>355</v>
       </c>
       <c r="I602" s="1" t="s">
-        <v>127</v>
+        <v>356</v>
       </c>
       <c r="J602" s="2" t="s">
         <v>29</v>
@@ -44017,10 +44041,10 @@
         <v>32</v>
       </c>
       <c r="N602" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O602" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="O602" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="P602" s="2" t="s">
         <v>34</v>
@@ -44061,16 +44085,16 @@
         <v>845</v>
       </c>
       <c r="F603" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="G603" s="1" t="s">
-        <v>276</v>
+        <v>318</v>
       </c>
       <c r="H603" s="1" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="I603" s="1" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="J603" s="2" t="s">
         <v>29</v>
@@ -44085,10 +44109,10 @@
         <v>32</v>
       </c>
       <c r="N603" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="O603" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="P603" s="2" t="s">
         <v>34</v>
@@ -44129,16 +44153,16 @@
         <v>845</v>
       </c>
       <c r="F604" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G604" s="1" t="s">
-        <v>354</v>
+        <v>70</v>
       </c>
       <c r="H604" s="1" t="s">
-        <v>355</v>
+        <v>71</v>
       </c>
       <c r="I604" s="1" t="s">
-        <v>356</v>
+        <v>71</v>
       </c>
       <c r="J604" s="2" t="s">
         <v>29</v>
@@ -44153,10 +44177,10 @@
         <v>32</v>
       </c>
       <c r="N604" s="2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="O604" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="P604" s="2" t="s">
         <v>34</v>
@@ -44197,34 +44221,34 @@
         <v>845</v>
       </c>
       <c r="F605" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G605" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H605" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="I605" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="J605" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K605" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L605" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M605" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N605" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G605" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="H605" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="I605" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="J605" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K605" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L605" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M605" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N605" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="O605" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="P605" s="2" t="s">
         <v>34</v>
@@ -44265,16 +44289,16 @@
         <v>845</v>
       </c>
       <c r="F606" s="2" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="G606" s="1" t="s">
-        <v>70</v>
+        <v>657</v>
       </c>
       <c r="H606" s="1" t="s">
-        <v>71</v>
+        <v>658</v>
       </c>
       <c r="I606" s="1" t="s">
-        <v>71</v>
+        <v>659</v>
       </c>
       <c r="J606" s="2" t="s">
         <v>29</v>
@@ -44333,16 +44357,16 @@
         <v>845</v>
       </c>
       <c r="F607" s="2" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="G607" s="1" t="s">
-        <v>280</v>
+        <v>558</v>
       </c>
       <c r="H607" s="1" t="s">
-        <v>281</v>
+        <v>559</v>
       </c>
       <c r="I607" s="1" t="s">
-        <v>281</v>
+        <v>559</v>
       </c>
       <c r="J607" s="2" t="s">
         <v>29</v>
@@ -44357,7 +44381,7 @@
         <v>32</v>
       </c>
       <c r="N607" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="O607" s="2" t="s">
         <v>34</v>
@@ -44401,16 +44425,16 @@
         <v>845</v>
       </c>
       <c r="F608" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G608" s="1" t="s">
-        <v>657</v>
+        <v>561</v>
       </c>
       <c r="H608" s="1" t="s">
-        <v>658</v>
+        <v>562</v>
       </c>
       <c r="I608" s="1" t="s">
-        <v>659</v>
+        <v>562</v>
       </c>
       <c r="J608" s="2" t="s">
         <v>29</v>
@@ -44469,16 +44493,16 @@
         <v>845</v>
       </c>
       <c r="F609" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="G609" s="1" t="s">
-        <v>392</v>
+        <v>854</v>
       </c>
       <c r="H609" s="1" t="s">
-        <v>393</v>
+        <v>855</v>
       </c>
       <c r="I609" s="1" t="s">
-        <v>394</v>
+        <v>856</v>
       </c>
       <c r="J609" s="2" t="s">
         <v>29</v>
@@ -44531,22 +44555,22 @@
         <v>22</v>
       </c>
       <c r="D610" s="2" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="E610" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F610" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="G610" s="1" t="s">
-        <v>558</v>
+        <v>606</v>
       </c>
       <c r="H610" s="1" t="s">
-        <v>559</v>
+        <v>607</v>
       </c>
       <c r="I610" s="1" t="s">
-        <v>559</v>
+        <v>607</v>
       </c>
       <c r="J610" s="2" t="s">
         <v>29</v>
@@ -44561,10 +44585,10 @@
         <v>32</v>
       </c>
       <c r="N610" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="O610" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="P610" s="2" t="s">
         <v>34</v>
@@ -44599,22 +44623,22 @@
         <v>22</v>
       </c>
       <c r="D611" s="2" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="E611" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F611" s="2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G611" s="1" t="s">
-        <v>561</v>
+        <v>183</v>
       </c>
       <c r="H611" s="1" t="s">
-        <v>562</v>
+        <v>184</v>
       </c>
       <c r="I611" s="1" t="s">
-        <v>562</v>
+        <v>184</v>
       </c>
       <c r="J611" s="2" t="s">
         <v>29</v>
@@ -44629,10 +44653,10 @@
         <v>32</v>
       </c>
       <c r="N611" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="O611" s="2" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="P611" s="2" t="s">
         <v>34</v>
@@ -44667,22 +44691,22 @@
         <v>22</v>
       </c>
       <c r="D612" s="2" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="E612" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F612" s="2" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="G612" s="1" t="s">
-        <v>606</v>
+        <v>283</v>
       </c>
       <c r="H612" s="1" t="s">
-        <v>607</v>
+        <v>284</v>
       </c>
       <c r="I612" s="1" t="s">
-        <v>607</v>
+        <v>284</v>
       </c>
       <c r="J612" s="2" t="s">
         <v>29</v>
@@ -44697,7 +44721,7 @@
         <v>32</v>
       </c>
       <c r="N612" s="2" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="O612" s="2" t="s">
         <v>34</v>
@@ -44741,16 +44765,16 @@
         <v>845</v>
       </c>
       <c r="F613" s="2" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="G613" s="1" t="s">
-        <v>183</v>
+        <v>860</v>
       </c>
       <c r="H613" s="1" t="s">
-        <v>184</v>
+        <v>861</v>
       </c>
       <c r="I613" s="1" t="s">
-        <v>184</v>
+        <v>862</v>
       </c>
       <c r="J613" s="2" t="s">
         <v>29</v>
@@ -44765,10 +44789,10 @@
         <v>32</v>
       </c>
       <c r="N613" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="O613" s="2" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="P613" s="2" t="s">
         <v>34</v>
@@ -44803,22 +44827,22 @@
         <v>22</v>
       </c>
       <c r="D614" s="2" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
       <c r="E614" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F614" s="2" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="G614" s="1" t="s">
-        <v>788</v>
+        <v>429</v>
       </c>
       <c r="H614" s="1" t="s">
-        <v>789</v>
+        <v>430</v>
       </c>
       <c r="I614" s="1" t="s">
-        <v>789</v>
+        <v>431</v>
       </c>
       <c r="J614" s="2" t="s">
         <v>29</v>
@@ -44833,10 +44857,10 @@
         <v>32</v>
       </c>
       <c r="N614" s="2" t="s">
-        <v>34</v>
+        <v>864</v>
       </c>
       <c r="O614" s="2" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="P614" s="2" t="s">
         <v>34</v>
@@ -44871,22 +44895,22 @@
         <v>22</v>
       </c>
       <c r="D615" s="2" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="E615" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F615" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="G615" s="1" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="H615" s="1" t="s">
-        <v>237</v>
+        <v>286</v>
       </c>
       <c r="I615" s="1" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
       <c r="J615" s="2" t="s">
         <v>29</v>
@@ -44901,10 +44925,10 @@
         <v>32</v>
       </c>
       <c r="N615" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="O615" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="P615" s="2" t="s">
         <v>34</v>
@@ -44939,22 +44963,22 @@
         <v>22</v>
       </c>
       <c r="D616" s="2" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="E616" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F616" s="2" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="G616" s="1" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="H616" s="1" t="s">
-        <v>284</v>
+        <v>328</v>
       </c>
       <c r="I616" s="1" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
       <c r="J616" s="2" t="s">
         <v>29</v>
@@ -44969,10 +44993,10 @@
         <v>32</v>
       </c>
       <c r="N616" s="2" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="O616" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="P616" s="2" t="s">
         <v>34</v>
@@ -45007,22 +45031,22 @@
         <v>22</v>
       </c>
       <c r="D617" s="2" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
       <c r="E617" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F617" s="2" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="G617" s="1" t="s">
-        <v>429</v>
+        <v>613</v>
       </c>
       <c r="H617" s="1" t="s">
-        <v>430</v>
+        <v>614</v>
       </c>
       <c r="I617" s="1" t="s">
-        <v>431</v>
+        <v>615</v>
       </c>
       <c r="J617" s="2" t="s">
         <v>29</v>
@@ -45037,10 +45061,10 @@
         <v>32</v>
       </c>
       <c r="N617" s="2" t="s">
-        <v>648</v>
+        <v>45</v>
       </c>
       <c r="O617" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="P617" s="2" t="s">
         <v>34</v>
@@ -45075,22 +45099,22 @@
         <v>22</v>
       </c>
       <c r="D618" s="2" t="s">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="E618" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F618" s="2" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="G618" s="1" t="s">
-        <v>285</v>
+        <v>143</v>
       </c>
       <c r="H618" s="1" t="s">
-        <v>286</v>
+        <v>144</v>
       </c>
       <c r="I618" s="1" t="s">
-        <v>286</v>
+        <v>144</v>
       </c>
       <c r="J618" s="2" t="s">
         <v>29</v>
@@ -45105,10 +45129,10 @@
         <v>32</v>
       </c>
       <c r="N618" s="2" t="s">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="O618" s="2" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="P618" s="2" t="s">
         <v>34</v>
@@ -45143,22 +45167,22 @@
         <v>22</v>
       </c>
       <c r="D619" s="2" t="s">
-        <v>862</v>
+        <v>869</v>
       </c>
       <c r="E619" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F619" s="2" t="s">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="G619" s="1" t="s">
-        <v>324</v>
+        <v>79</v>
       </c>
       <c r="H619" s="1" t="s">
-        <v>325</v>
+        <v>80</v>
       </c>
       <c r="I619" s="1" t="s">
-        <v>325</v>
+        <v>80</v>
       </c>
       <c r="J619" s="2" t="s">
         <v>29</v>
@@ -45173,10 +45197,10 @@
         <v>32</v>
       </c>
       <c r="N619" s="2" t="s">
-        <v>45</v>
+        <v>242</v>
       </c>
       <c r="O619" s="2" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="P619" s="2" t="s">
         <v>34</v>
@@ -45211,22 +45235,22 @@
         <v>22</v>
       </c>
       <c r="D620" s="2" t="s">
-        <v>863</v>
+        <v>870</v>
       </c>
       <c r="E620" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F620" s="2" t="s">
-        <v>94</v>
+        <v>200</v>
       </c>
       <c r="G620" s="1" t="s">
-        <v>327</v>
+        <v>729</v>
       </c>
       <c r="H620" s="1" t="s">
-        <v>328</v>
+        <v>730</v>
       </c>
       <c r="I620" s="1" t="s">
-        <v>329</v>
+        <v>730</v>
       </c>
       <c r="J620" s="2" t="s">
         <v>29</v>
@@ -45241,7 +45265,7 @@
         <v>32</v>
       </c>
       <c r="N620" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="O620" s="2" t="s">
         <v>45</v>
@@ -45279,22 +45303,22 @@
         <v>22</v>
       </c>
       <c r="D621" s="2" t="s">
-        <v>864</v>
+        <v>871</v>
       </c>
       <c r="E621" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F621" s="2" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="G621" s="1" t="s">
-        <v>613</v>
+        <v>401</v>
       </c>
       <c r="H621" s="1" t="s">
-        <v>614</v>
+        <v>402</v>
       </c>
       <c r="I621" s="1" t="s">
-        <v>615</v>
+        <v>402</v>
       </c>
       <c r="J621" s="2" t="s">
         <v>29</v>
@@ -45347,22 +45371,22 @@
         <v>22</v>
       </c>
       <c r="D622" s="2" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="E622" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F622" s="2" t="s">
-        <v>142</v>
+        <v>203</v>
       </c>
       <c r="G622" s="1" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="H622" s="1" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="I622" s="1" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="J622" s="2" t="s">
         <v>29</v>
@@ -45377,10 +45401,10 @@
         <v>32</v>
       </c>
       <c r="N622" s="2" t="s">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="O622" s="2" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="P622" s="2" t="s">
         <v>34</v>
@@ -45415,22 +45439,22 @@
         <v>22</v>
       </c>
       <c r="D623" s="2" t="s">
-        <v>866</v>
+        <v>873</v>
       </c>
       <c r="E623" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F623" s="2" t="s">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="G623" s="1" t="s">
-        <v>79</v>
+        <v>806</v>
       </c>
       <c r="H623" s="1" t="s">
-        <v>80</v>
+        <v>807</v>
       </c>
       <c r="I623" s="1" t="s">
-        <v>80</v>
+        <v>807</v>
       </c>
       <c r="J623" s="2" t="s">
         <v>29</v>
@@ -45445,10 +45469,10 @@
         <v>32</v>
       </c>
       <c r="N623" s="2" t="s">
-        <v>498</v>
+        <v>45</v>
       </c>
       <c r="O623" s="2" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="P623" s="2" t="s">
         <v>34</v>
@@ -45483,22 +45507,22 @@
         <v>22</v>
       </c>
       <c r="D624" s="2" t="s">
-        <v>867</v>
+        <v>874</v>
       </c>
       <c r="E624" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F624" s="2" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="G624" s="1" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="H624" s="1" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="I624" s="1" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="J624" s="2" t="s">
         <v>29</v>
@@ -45513,10 +45537,10 @@
         <v>32</v>
       </c>
       <c r="N624" s="2" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="O624" s="2" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="P624" s="2" t="s">
         <v>34</v>
@@ -45551,22 +45575,22 @@
         <v>22</v>
       </c>
       <c r="D625" s="2" t="s">
-        <v>868</v>
+        <v>875</v>
       </c>
       <c r="E625" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F625" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="G625" s="1" t="s">
-        <v>806</v>
+        <v>735</v>
       </c>
       <c r="H625" s="1" t="s">
-        <v>807</v>
+        <v>736</v>
       </c>
       <c r="I625" s="1" t="s">
-        <v>807</v>
+        <v>737</v>
       </c>
       <c r="J625" s="2" t="s">
         <v>29</v>
@@ -45581,10 +45605,10 @@
         <v>32</v>
       </c>
       <c r="N625" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="O625" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="P625" s="2" t="s">
         <v>34</v>
@@ -45619,22 +45643,22 @@
         <v>22</v>
       </c>
       <c r="D626" s="2" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
       <c r="E626" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F626" s="2" t="s">
-        <v>214</v>
+        <v>105</v>
       </c>
       <c r="G626" s="1" t="s">
-        <v>373</v>
+        <v>226</v>
       </c>
       <c r="H626" s="1" t="s">
-        <v>374</v>
+        <v>227</v>
       </c>
       <c r="I626" s="1" t="s">
-        <v>374</v>
+        <v>227</v>
       </c>
       <c r="J626" s="2" t="s">
         <v>29</v>
@@ -45649,10 +45673,10 @@
         <v>32</v>
       </c>
       <c r="N626" s="2" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="O626" s="2" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="P626" s="2" t="s">
         <v>34</v>
@@ -45687,22 +45711,22 @@
         <v>22</v>
       </c>
       <c r="D627" s="2" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="E627" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F627" s="2" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="G627" s="1" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="H627" s="1" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="I627" s="1" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="J627" s="2" t="s">
         <v>29</v>
@@ -45720,7 +45744,7 @@
         <v>45</v>
       </c>
       <c r="O627" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="P627" s="2" t="s">
         <v>34</v>
@@ -45755,22 +45779,22 @@
         <v>22</v>
       </c>
       <c r="D628" s="2" t="s">
-        <v>871</v>
+        <v>878</v>
       </c>
       <c r="E628" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F628" s="2" t="s">
-        <v>58</v>
+        <v>240</v>
       </c>
       <c r="G628" s="1" t="s">
-        <v>260</v>
+        <v>624</v>
       </c>
       <c r="H628" s="1" t="s">
-        <v>261</v>
+        <v>625</v>
       </c>
       <c r="I628" s="1" t="s">
-        <v>261</v>
+        <v>625</v>
       </c>
       <c r="J628" s="2" t="s">
         <v>29</v>
@@ -45785,7 +45809,7 @@
         <v>32</v>
       </c>
       <c r="N628" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O628" s="2" t="s">
         <v>34</v>
@@ -45823,22 +45847,22 @@
         <v>22</v>
       </c>
       <c r="D629" s="2" t="s">
-        <v>872</v>
+        <v>879</v>
       </c>
       <c r="E629" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F629" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="G629" s="1" t="s">
-        <v>742</v>
+        <v>412</v>
       </c>
       <c r="H629" s="1" t="s">
-        <v>743</v>
+        <v>413</v>
       </c>
       <c r="I629" s="1" t="s">
-        <v>743</v>
+        <v>414</v>
       </c>
       <c r="J629" s="2" t="s">
         <v>29</v>
@@ -45853,10 +45877,10 @@
         <v>32</v>
       </c>
       <c r="N629" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="O629" s="2" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="P629" s="2" t="s">
         <v>34</v>
@@ -45891,22 +45915,22 @@
         <v>22</v>
       </c>
       <c r="D630" s="2" t="s">
-        <v>873</v>
+        <v>880</v>
       </c>
       <c r="E630" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F630" s="2" t="s">
-        <v>240</v>
+        <v>38</v>
       </c>
       <c r="G630" s="1" t="s">
-        <v>624</v>
+        <v>291</v>
       </c>
       <c r="H630" s="1" t="s">
-        <v>625</v>
+        <v>292</v>
       </c>
       <c r="I630" s="1" t="s">
-        <v>625</v>
+        <v>293</v>
       </c>
       <c r="J630" s="2" t="s">
         <v>29</v>
@@ -45921,10 +45945,10 @@
         <v>32</v>
       </c>
       <c r="N630" s="2" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="O630" s="2" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="P630" s="2" t="s">
         <v>34</v>
@@ -45959,22 +45983,22 @@
         <v>22</v>
       </c>
       <c r="D631" s="2" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="E631" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F631" s="2" t="s">
-        <v>243</v>
+        <v>82</v>
       </c>
       <c r="G631" s="1" t="s">
-        <v>412</v>
+        <v>83</v>
       </c>
       <c r="H631" s="1" t="s">
-        <v>413</v>
+        <v>84</v>
       </c>
       <c r="I631" s="1" t="s">
-        <v>414</v>
+        <v>84</v>
       </c>
       <c r="J631" s="2" t="s">
         <v>29</v>
@@ -45992,7 +46016,7 @@
         <v>59</v>
       </c>
       <c r="O631" s="2" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="P631" s="2" t="s">
         <v>34</v>
@@ -46027,22 +46051,22 @@
         <v>22</v>
       </c>
       <c r="D632" s="2" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="E632" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F632" s="2" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="G632" s="1" t="s">
-        <v>523</v>
+        <v>751</v>
       </c>
       <c r="H632" s="1" t="s">
-        <v>524</v>
+        <v>752</v>
       </c>
       <c r="I632" s="1" t="s">
-        <v>524</v>
+        <v>752</v>
       </c>
       <c r="J632" s="2" t="s">
         <v>29</v>
@@ -46095,22 +46119,22 @@
         <v>22</v>
       </c>
       <c r="D633" s="2" t="s">
-        <v>876</v>
+        <v>883</v>
       </c>
       <c r="E633" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F633" s="2" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="G633" s="1" t="s">
-        <v>817</v>
+        <v>580</v>
       </c>
       <c r="H633" s="1" t="s">
-        <v>818</v>
+        <v>581</v>
       </c>
       <c r="I633" s="1" t="s">
-        <v>818</v>
+        <v>581</v>
       </c>
       <c r="J633" s="2" t="s">
         <v>29</v>
@@ -46125,10 +46149,10 @@
         <v>32</v>
       </c>
       <c r="N633" s="2" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="O633" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="P633" s="2" t="s">
         <v>34</v>
@@ -46163,22 +46187,22 @@
         <v>22</v>
       </c>
       <c r="D634" s="2" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
       <c r="E634" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F634" s="2" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="G634" s="1" t="s">
-        <v>291</v>
+        <v>885</v>
       </c>
       <c r="H634" s="1" t="s">
-        <v>292</v>
+        <v>886</v>
       </c>
       <c r="I634" s="1" t="s">
-        <v>293</v>
+        <v>887</v>
       </c>
       <c r="J634" s="2" t="s">
         <v>29</v>
@@ -46193,10 +46217,10 @@
         <v>32</v>
       </c>
       <c r="N634" s="2" t="s">
-        <v>212</v>
+        <v>45</v>
       </c>
       <c r="O634" s="2" t="s">
-        <v>213</v>
+        <v>34</v>
       </c>
       <c r="P634" s="2" t="s">
         <v>34</v>
@@ -46231,22 +46255,22 @@
         <v>22</v>
       </c>
       <c r="D635" s="2" t="s">
-        <v>878</v>
+        <v>888</v>
       </c>
       <c r="E635" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F635" s="2" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="G635" s="1" t="s">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="H635" s="1" t="s">
-        <v>84</v>
+        <v>187</v>
       </c>
       <c r="I635" s="1" t="s">
-        <v>84</v>
+        <v>187</v>
       </c>
       <c r="J635" s="2" t="s">
         <v>29</v>
@@ -46261,10 +46285,10 @@
         <v>32</v>
       </c>
       <c r="N635" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O635" s="2" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="P635" s="2" t="s">
         <v>34</v>
@@ -46299,22 +46323,22 @@
         <v>22</v>
       </c>
       <c r="D636" s="2" t="s">
-        <v>879</v>
+        <v>889</v>
       </c>
       <c r="E636" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F636" s="2" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="G636" s="1" t="s">
-        <v>751</v>
+        <v>449</v>
       </c>
       <c r="H636" s="1" t="s">
-        <v>752</v>
+        <v>450</v>
       </c>
       <c r="I636" s="1" t="s">
-        <v>752</v>
+        <v>451</v>
       </c>
       <c r="J636" s="2" t="s">
         <v>29</v>
@@ -46329,10 +46353,10 @@
         <v>32</v>
       </c>
       <c r="N636" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O636" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="O636" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="P636" s="2" t="s">
         <v>34</v>
@@ -46367,22 +46391,22 @@
         <v>22</v>
       </c>
       <c r="D637" s="2" t="s">
-        <v>880</v>
+        <v>890</v>
       </c>
       <c r="E637" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F637" s="2" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="G637" s="1" t="s">
-        <v>580</v>
+        <v>489</v>
       </c>
       <c r="H637" s="1" t="s">
-        <v>581</v>
+        <v>490</v>
       </c>
       <c r="I637" s="1" t="s">
-        <v>581</v>
+        <v>490</v>
       </c>
       <c r="J637" s="2" t="s">
         <v>29</v>
@@ -46435,22 +46459,22 @@
         <v>22</v>
       </c>
       <c r="D638" s="2" t="s">
-        <v>881</v>
+        <v>891</v>
       </c>
       <c r="E638" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F638" s="2" t="s">
-        <v>44</v>
+        <v>263</v>
       </c>
       <c r="G638" s="1" t="s">
-        <v>186</v>
+        <v>264</v>
       </c>
       <c r="H638" s="1" t="s">
-        <v>187</v>
+        <v>265</v>
       </c>
       <c r="I638" s="1" t="s">
-        <v>187</v>
+        <v>265</v>
       </c>
       <c r="J638" s="2" t="s">
         <v>29</v>
@@ -46465,10 +46489,10 @@
         <v>32</v>
       </c>
       <c r="N638" s="2" t="s">
-        <v>120</v>
+        <v>333</v>
       </c>
       <c r="O638" s="2" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="P638" s="2" t="s">
         <v>34</v>
@@ -46503,22 +46527,22 @@
         <v>22</v>
       </c>
       <c r="D639" s="2" t="s">
-        <v>882</v>
+        <v>892</v>
       </c>
       <c r="E639" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F639" s="2" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="G639" s="1" t="s">
-        <v>449</v>
+        <v>494</v>
       </c>
       <c r="H639" s="1" t="s">
-        <v>450</v>
+        <v>495</v>
       </c>
       <c r="I639" s="1" t="s">
-        <v>451</v>
+        <v>495</v>
       </c>
       <c r="J639" s="2" t="s">
         <v>29</v>
@@ -46533,10 +46557,10 @@
         <v>32</v>
       </c>
       <c r="N639" s="2" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="O639" s="2" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="P639" s="2" t="s">
         <v>34</v>
@@ -46571,22 +46595,22 @@
         <v>22</v>
       </c>
       <c r="D640" s="2" t="s">
-        <v>883</v>
+        <v>893</v>
       </c>
       <c r="E640" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F640" s="2" t="s">
-        <v>294</v>
+        <v>191</v>
       </c>
       <c r="G640" s="1" t="s">
-        <v>489</v>
+        <v>192</v>
       </c>
       <c r="H640" s="1" t="s">
-        <v>490</v>
+        <v>193</v>
       </c>
       <c r="I640" s="1" t="s">
-        <v>490</v>
+        <v>194</v>
       </c>
       <c r="J640" s="2" t="s">
         <v>29</v>
@@ -46601,7 +46625,7 @@
         <v>32</v>
       </c>
       <c r="N640" s="2" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="O640" s="2" t="s">
         <v>34</v>
@@ -46616,7 +46640,7 @@
         <v>34</v>
       </c>
       <c r="S640" s="2" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="T640" s="2" t="s">
         <v>34</v>
@@ -46639,22 +46663,22 @@
         <v>22</v>
       </c>
       <c r="D641" s="2" t="s">
-        <v>884</v>
+        <v>894</v>
       </c>
       <c r="E641" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F641" s="2" t="s">
-        <v>263</v>
+        <v>303</v>
       </c>
       <c r="G641" s="1" t="s">
-        <v>264</v>
+        <v>534</v>
       </c>
       <c r="H641" s="1" t="s">
-        <v>265</v>
+        <v>535</v>
       </c>
       <c r="I641" s="1" t="s">
-        <v>265</v>
+        <v>536</v>
       </c>
       <c r="J641" s="2" t="s">
         <v>29</v>
@@ -46669,10 +46693,10 @@
         <v>32</v>
       </c>
       <c r="N641" s="2" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="O641" s="2" t="s">
-        <v>171</v>
+        <v>34</v>
       </c>
       <c r="P641" s="2" t="s">
         <v>34</v>
@@ -46707,22 +46731,22 @@
         <v>22</v>
       </c>
       <c r="D642" s="2" t="s">
-        <v>885</v>
+        <v>895</v>
       </c>
       <c r="E642" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F642" s="2" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G642" s="1" t="s">
-        <v>494</v>
+        <v>346</v>
       </c>
       <c r="H642" s="1" t="s">
-        <v>495</v>
+        <v>347</v>
       </c>
       <c r="I642" s="1" t="s">
-        <v>495</v>
+        <v>347</v>
       </c>
       <c r="J642" s="2" t="s">
         <v>29</v>
@@ -46737,10 +46761,10 @@
         <v>32</v>
       </c>
       <c r="N642" s="2" t="s">
-        <v>47</v>
+        <v>769</v>
       </c>
       <c r="O642" s="2" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="P642" s="2" t="s">
         <v>34</v>
@@ -46775,22 +46799,22 @@
         <v>22</v>
       </c>
       <c r="D643" s="2" t="s">
-        <v>886</v>
+        <v>896</v>
       </c>
       <c r="E643" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F643" s="2" t="s">
-        <v>191</v>
+        <v>326</v>
       </c>
       <c r="G643" s="1" t="s">
-        <v>192</v>
+        <v>542</v>
       </c>
       <c r="H643" s="1" t="s">
-        <v>193</v>
+        <v>543</v>
       </c>
       <c r="I643" s="1" t="s">
-        <v>194</v>
+        <v>543</v>
       </c>
       <c r="J643" s="2" t="s">
         <v>29</v>
@@ -46805,10 +46829,10 @@
         <v>32</v>
       </c>
       <c r="N643" s="2" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="O643" s="2" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="P643" s="2" t="s">
         <v>34</v>
@@ -46820,7 +46844,7 @@
         <v>34</v>
       </c>
       <c r="S643" s="2" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="T643" s="2" t="s">
         <v>34</v>
@@ -46843,22 +46867,22 @@
         <v>22</v>
       </c>
       <c r="D644" s="2" t="s">
-        <v>887</v>
+        <v>897</v>
       </c>
       <c r="E644" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F644" s="2" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="G644" s="1" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="H644" s="1" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="I644" s="1" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="J644" s="2" t="s">
         <v>29</v>
@@ -46873,10 +46897,10 @@
         <v>32</v>
       </c>
       <c r="N644" s="2" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="O644" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P644" s="2" t="s">
         <v>34</v>
@@ -46911,22 +46935,22 @@
         <v>22</v>
       </c>
       <c r="D645" s="2" t="s">
-        <v>888</v>
+        <v>898</v>
       </c>
       <c r="E645" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F645" s="2" t="s">
-        <v>310</v>
+        <v>108</v>
       </c>
       <c r="G645" s="1" t="s">
-        <v>346</v>
+        <v>109</v>
       </c>
       <c r="H645" s="1" t="s">
-        <v>347</v>
+        <v>110</v>
       </c>
       <c r="I645" s="1" t="s">
-        <v>347</v>
+        <v>110</v>
       </c>
       <c r="J645" s="2" t="s">
         <v>29</v>
@@ -46941,10 +46965,10 @@
         <v>32</v>
       </c>
       <c r="N645" s="2" t="s">
-        <v>452</v>
+        <v>899</v>
       </c>
       <c r="O645" s="2" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="P645" s="2" t="s">
         <v>34</v>
@@ -46979,22 +47003,22 @@
         <v>22</v>
       </c>
       <c r="D646" s="2" t="s">
-        <v>889</v>
+        <v>900</v>
       </c>
       <c r="E646" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F646" s="2" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="G646" s="1" t="s">
-        <v>640</v>
+        <v>550</v>
       </c>
       <c r="H646" s="1" t="s">
-        <v>641</v>
+        <v>551</v>
       </c>
       <c r="I646" s="1" t="s">
-        <v>641</v>
+        <v>551</v>
       </c>
       <c r="J646" s="2" t="s">
         <v>29</v>
@@ -47009,10 +47033,10 @@
         <v>32</v>
       </c>
       <c r="N646" s="2" t="s">
-        <v>45</v>
+        <v>901</v>
       </c>
       <c r="O646" s="2" t="s">
-        <v>34</v>
+        <v>902</v>
       </c>
       <c r="P646" s="2" t="s">
         <v>34</v>
@@ -47047,22 +47071,22 @@
         <v>22</v>
       </c>
       <c r="D647" s="2" t="s">
-        <v>890</v>
+        <v>903</v>
       </c>
       <c r="E647" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F647" s="2" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="G647" s="1" t="s">
-        <v>539</v>
+        <v>501</v>
       </c>
       <c r="H647" s="1" t="s">
-        <v>540</v>
+        <v>502</v>
       </c>
       <c r="I647" s="1" t="s">
-        <v>540</v>
+        <v>502</v>
       </c>
       <c r="J647" s="2" t="s">
         <v>29</v>
@@ -47077,10 +47101,10 @@
         <v>32</v>
       </c>
       <c r="N647" s="2" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="O647" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="P647" s="2" t="s">
         <v>34</v>
@@ -47115,22 +47139,22 @@
         <v>22</v>
       </c>
       <c r="D648" s="2" t="s">
-        <v>891</v>
+        <v>904</v>
       </c>
       <c r="E648" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F648" s="2" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="G648" s="1" t="s">
-        <v>542</v>
+        <v>905</v>
       </c>
       <c r="H648" s="1" t="s">
-        <v>543</v>
+        <v>906</v>
       </c>
       <c r="I648" s="1" t="s">
-        <v>543</v>
+        <v>907</v>
       </c>
       <c r="J648" s="2" t="s">
         <v>29</v>
@@ -47145,10 +47169,10 @@
         <v>32</v>
       </c>
       <c r="N648" s="2" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="O648" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="P648" s="2" t="s">
         <v>34</v>
@@ -47169,346 +47193,6 @@
         <v>35</v>
       </c>
       <c r="V648" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="649">
-      <c r="A649" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B649" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C649" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D649" s="2" t="s">
-        <v>892</v>
-      </c>
-      <c r="E649" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="F649" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="G649" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="H649" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="I649" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="J649" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K649" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L649" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M649" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N649" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O649" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P649" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q649" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R649" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S649" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T649" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U649" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V649" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="650">
-      <c r="A650" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B650" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C650" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D650" s="2" t="s">
-        <v>893</v>
-      </c>
-      <c r="E650" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="F650" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G650" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H650" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I650" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J650" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K650" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L650" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M650" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N650" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="O650" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P650" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q650" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R650" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S650" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T650" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U650" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V650" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="651">
-      <c r="A651" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B651" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C651" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D651" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="E651" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="F651" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G651" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H651" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I651" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J651" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K651" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L651" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M651" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N651" s="2" t="s">
-        <v>895</v>
-      </c>
-      <c r="O651" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="P651" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q651" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R651" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S651" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T651" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U651" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V651" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="652">
-      <c r="A652" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B652" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C652" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D652" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="E652" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="F652" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="G652" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="H652" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="I652" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="J652" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K652" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L652" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M652" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N652" s="2" t="s">
-        <v>897</v>
-      </c>
-      <c r="O652" s="2" t="s">
-        <v>898</v>
-      </c>
-      <c r="P652" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q652" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R652" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S652" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T652" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U652" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V652" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="653">
-      <c r="A653" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B653" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C653" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D653" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="E653" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="F653" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="G653" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="H653" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="I653" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="J653" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K653" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L653" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M653" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N653" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="O653" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P653" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q653" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R653" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S653" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T653" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U653" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V653" s="2" t="s">
         <v>34</v>
       </c>
     </row>
